--- a/scripts/Competences/Eleves_PSIe.xlsx
+++ b/scripts/Competences/Eleves_PSIe.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4168CF1-0D82-4B0E-86EE-1DE05AA338EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC0F43-69A2-48EB-A516-315DF4E3E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{343E057D-976D-4681-BFD1-AAFA1B4BE677}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Nom00</t>
   </si>
@@ -145,6 +143,18 @@
   </si>
   <si>
     <t>Prenom17</t>
+  </si>
+  <si>
+    <t>Nom18</t>
+  </si>
+  <si>
+    <t>Prenom18</t>
+  </si>
+  <si>
+    <t>Nom19</t>
+  </si>
+  <si>
+    <t>Prenom19</t>
   </si>
 </sst>
 </file>
@@ -513,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632DB24-C679-4318-BD1A-79457CED9B53}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,9 +834,43 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>10000018</v>
+        <v>10000017</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>10000017</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>10000017</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -850,7 +894,9 @@
     <hyperlink ref="E15" r:id="rId15" xr:uid="{1848C157-B588-45A9-8CEC-CEF32A7B1E71}"/>
     <hyperlink ref="E16" r:id="rId16" xr:uid="{5DF404D0-5C6A-4FBF-A4EB-D16A5C8C013C}"/>
     <hyperlink ref="E17" r:id="rId17" xr:uid="{3421FF0B-8436-4CED-ADCE-7962C8EC3D35}"/>
-    <hyperlink ref="E18" r:id="rId18" xr:uid="{627548DF-9E83-48D6-BC0B-B4100F7ECE72}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{0CDB5B02-455C-4F3A-9091-2C993128BED1}"/>
+    <hyperlink ref="E19" r:id="rId19" xr:uid="{9DDA8212-91DF-4AD0-BE5E-A4FB28CE3F54}"/>
+    <hyperlink ref="E20" r:id="rId20" xr:uid="{C5431299-48BE-4A98-A7A6-9EDE9757DC2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
